--- a/runs/run469/NotionalETEOutput469.xlsx
+++ b/runs/run469/NotionalETEOutput469.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT3_State_Update</t>
+    <t>Missile_SOMERSAULT0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3_455.MISSILE_SOMERSAULT3_455</t>
+    <t>MISSILE_SOMERSAULT0_325.MISSILE_SOMERSAULT0_325</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3</t>
+    <t>MISSILE_SOMERSAULT0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1571.556241934834</v>
+        <v>-1469.402311818983</v>
       </c>
       <c r="J2">
-        <v>1981.821066763071</v>
+        <v>1929.962775005718</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1410.070619158346</v>
+        <v>-1493.723445179473</v>
       </c>
       <c r="J3">
-        <v>2032.445406026016</v>
+        <v>1934.010428051468</v>
       </c>
       <c r="K3">
-        <v>293.3551054066465</v>
+        <v>296.7467289410127</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1447.870190228522</v>
+        <v>-1491.5201331017</v>
       </c>
       <c r="J4">
-        <v>1973.319418417447</v>
+        <v>1944.319364240589</v>
       </c>
       <c r="K4">
-        <v>577.2626028857263</v>
+        <v>588.0008745075211</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1420.951284902585</v>
+        <v>-1442.960955534087</v>
       </c>
       <c r="J5">
-        <v>1854.368347816111</v>
+        <v>1943.354859131934</v>
       </c>
       <c r="K5">
-        <v>834.6316742129253</v>
+        <v>876.4813953268545</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1337.143535335689</v>
+        <v>-1390.594712994684</v>
       </c>
       <c r="J6">
-        <v>1793.000142947167</v>
+        <v>1870.043734403782</v>
       </c>
       <c r="K6">
-        <v>1145.434849829744</v>
+        <v>1076.506635733941</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1315.487020566153</v>
+        <v>-1284.953562931491</v>
       </c>
       <c r="J7">
-        <v>1768.718738062988</v>
+        <v>1816.085094555669</v>
       </c>
       <c r="K7">
-        <v>1431.871137211427</v>
+        <v>1413.789344398434</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1374.469245804899</v>
+        <v>-1284.934340972318</v>
       </c>
       <c r="J8">
-        <v>1754.156818491412</v>
+        <v>1680.406166275182</v>
       </c>
       <c r="K8">
-        <v>1553.20639794232</v>
+        <v>1541.066011834576</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.8980943179654</v>
+        <v>-97.83000866664902</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1236.747888620715</v>
+        <v>-1314.604666712343</v>
       </c>
       <c r="J9">
-        <v>1723.445581493071</v>
+        <v>1695.230999342326</v>
       </c>
       <c r="K9">
-        <v>1795.6035178521</v>
+        <v>1843.736681924841</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>221.6033493480129</v>
+        <v>218.1611843180233</v>
       </c>
       <c r="G10">
-        <v>-86.35146184988083</v>
+        <v>-83.83462188671156</v>
       </c>
       <c r="H10">
-        <v>844.1892572777855</v>
+        <v>832.0383271519877</v>
       </c>
       <c r="I10">
-        <v>-1283.930522322044</v>
+        <v>-1266.566082869685</v>
       </c>
       <c r="J10">
-        <v>1627.000295457235</v>
+        <v>1538.558722966238</v>
       </c>
       <c r="K10">
-        <v>1982.363436279813</v>
+        <v>2032.047054646065</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>171.6702349083903</v>
+        <v>172.0753429922927</v>
       </c>
       <c r="G11">
-        <v>-64.85188873517238</v>
+        <v>-67.11551426541375</v>
       </c>
       <c r="H11">
-        <v>1036.499894833429</v>
+        <v>1040.834458030155</v>
       </c>
       <c r="I11">
-        <v>-1205.096791183154</v>
+        <v>-1200.381647730548</v>
       </c>
       <c r="J11">
-        <v>1610.177140215929</v>
+        <v>1487.788695726252</v>
       </c>
       <c r="K11">
-        <v>2113.02075120677</v>
+        <v>2127.076444486911</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>143.6933107773089</v>
+        <v>138.3876083883184</v>
       </c>
       <c r="G12">
-        <v>-49.48182572922694</v>
+        <v>-48.38254052655977</v>
       </c>
       <c r="H12">
-        <v>1137.318112816586</v>
+        <v>1195.61277653846</v>
       </c>
       <c r="I12">
-        <v>-1130.256034854408</v>
+        <v>-1202.166498413391</v>
       </c>
       <c r="J12">
-        <v>1519.98629388208</v>
+        <v>1511.001262396162</v>
       </c>
       <c r="K12">
-        <v>2338.060100840429</v>
+        <v>2378.241555761842</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.7205085613343</v>
+        <v>123.9981676567202</v>
       </c>
       <c r="G13">
-        <v>-33.58120455313006</v>
+        <v>-34.67916097574976</v>
       </c>
       <c r="H13">
-        <v>1292.267509132347</v>
+        <v>1276.405154142627</v>
       </c>
       <c r="I13">
-        <v>-1138.999779459921</v>
+        <v>-1080.372219719507</v>
       </c>
       <c r="J13">
-        <v>1537.967746934689</v>
+        <v>1485.707865829013</v>
       </c>
       <c r="K13">
-        <v>2561.406156321967</v>
+        <v>2585.542580918016</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.3344062572391</v>
+        <v>107.8482483088695</v>
       </c>
       <c r="G14">
-        <v>-16.95729959358077</v>
+        <v>-17.46349948137891</v>
       </c>
       <c r="H14">
-        <v>1335.310496531302</v>
+        <v>1273.167538298041</v>
       </c>
       <c r="I14">
-        <v>-1090.589458817308</v>
+        <v>-1071.785372710299</v>
       </c>
       <c r="J14">
-        <v>1366.502034679345</v>
+        <v>1355.866862422987</v>
       </c>
       <c r="K14">
-        <v>2619.618645424392</v>
+        <v>2626.945758242035</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>105.0510417247267</v>
+        <v>104.7845178458127</v>
       </c>
       <c r="G15">
-        <v>-0.9195396029719759</v>
+        <v>-0.9658400077346172</v>
       </c>
       <c r="H15">
-        <v>1414.238237153093</v>
+        <v>1446.562754186205</v>
       </c>
       <c r="I15">
-        <v>-1001.053295796225</v>
+        <v>-1067.772124140441</v>
       </c>
       <c r="J15">
-        <v>1392.378177384048</v>
+        <v>1430.305261732113</v>
       </c>
       <c r="K15">
-        <v>2704.463077388763</v>
+        <v>2772.439448985686</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.98074097646308</v>
+        <v>91.19964816528837</v>
       </c>
       <c r="G16">
-        <v>15.62012263649954</v>
+        <v>15.86601502599031</v>
       </c>
       <c r="H16">
-        <v>1376.59462174705</v>
+        <v>1368.368566105424</v>
       </c>
       <c r="I16">
-        <v>-963.0343688241514</v>
+        <v>-972.983258306407</v>
       </c>
       <c r="J16">
-        <v>1333.920258231529</v>
+        <v>1279.619103207675</v>
       </c>
       <c r="K16">
-        <v>2741.931014713559</v>
+        <v>2873.369209139545</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.81003973338055</v>
+        <v>82.98000322684598</v>
       </c>
       <c r="G17">
-        <v>31.55874293478831</v>
+        <v>33.42961652675815</v>
       </c>
       <c r="H17">
-        <v>1456.385849127166</v>
+        <v>1418.145691144369</v>
       </c>
       <c r="I17">
-        <v>-964.268995608362</v>
+        <v>-1002.247512623767</v>
       </c>
       <c r="J17">
-        <v>1287.918621200983</v>
+        <v>1277.721641578421</v>
       </c>
       <c r="K17">
-        <v>2958.207751019415</v>
+        <v>2837.505161061191</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.00674927569216</v>
+        <v>83.65154122316447</v>
       </c>
       <c r="G18">
-        <v>50.85351979282181</v>
+        <v>48.79664548961728</v>
       </c>
       <c r="H18">
-        <v>1502.268272428434</v>
+        <v>1486.546113097243</v>
       </c>
       <c r="I18">
-        <v>-928.3827717191795</v>
+        <v>-970.1285750929139</v>
       </c>
       <c r="J18">
-        <v>1227.286443140893</v>
+        <v>1179.868497088248</v>
       </c>
       <c r="K18">
-        <v>3027.739172131193</v>
+        <v>2984.373127058396</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.3868263448651</v>
+        <v>77.53119567625326</v>
       </c>
       <c r="G19">
-        <v>62.91983957111077</v>
+        <v>62.32483526948189</v>
       </c>
       <c r="H19">
-        <v>1570.466028298792</v>
+        <v>1486.680061274012</v>
       </c>
       <c r="I19">
-        <v>-903.3934221240821</v>
+        <v>-907.1716759689222</v>
       </c>
       <c r="J19">
-        <v>1199.813873229146</v>
+        <v>1164.345513298626</v>
       </c>
       <c r="K19">
-        <v>3171.53763130589</v>
+        <v>3062.414286345546</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.95448691395107</v>
+        <v>76.07722787351128</v>
       </c>
       <c r="G20">
-        <v>83.40344645086125</v>
+        <v>85.20604379036935</v>
       </c>
       <c r="H20">
-        <v>1597.740598747348</v>
+        <v>1594.874571321841</v>
       </c>
       <c r="I20">
-        <v>-860.9162257539257</v>
+        <v>-805.1282357071167</v>
       </c>
       <c r="J20">
-        <v>1091.765396293814</v>
+        <v>1106.663331780427</v>
       </c>
       <c r="K20">
-        <v>3242.977109797385</v>
+        <v>3290.609882761729</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.36464519037128</v>
+        <v>70.82145534131428</v>
       </c>
       <c r="G21">
-        <v>96.68707070897116</v>
+        <v>96.13641935724924</v>
       </c>
       <c r="H21">
-        <v>1560.387039149703</v>
+        <v>1629.341429525147</v>
       </c>
       <c r="I21">
-        <v>-791.5792891957568</v>
+        <v>-807.6534747097453</v>
       </c>
       <c r="J21">
-        <v>1096.42192160537</v>
+        <v>1040.02501577786</v>
       </c>
       <c r="K21">
-        <v>3176.320650756033</v>
+        <v>3307.668974186695</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.91192698388824</v>
+        <v>70.63049660360028</v>
       </c>
       <c r="G22">
-        <v>115.3114486975367</v>
+        <v>116.2932378058741</v>
       </c>
       <c r="H22">
-        <v>1584.453308637002</v>
+        <v>1631.744826949676</v>
       </c>
       <c r="I22">
-        <v>-731.9179072233763</v>
+        <v>-736.1818701994398</v>
       </c>
       <c r="J22">
-        <v>1020.67185013114</v>
+        <v>1042.173642884259</v>
       </c>
       <c r="K22">
-        <v>3083.261838814759</v>
+        <v>3252.543008833885</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.22387168551764</v>
+        <v>68.20742902996874</v>
       </c>
       <c r="G23">
-        <v>136.832743785685</v>
+        <v>133.5190871461269</v>
       </c>
       <c r="H23">
-        <v>1700.025160153191</v>
+        <v>1628.847538903995</v>
       </c>
       <c r="I23">
-        <v>-671.29736750599</v>
+        <v>-696.6918133977092</v>
       </c>
       <c r="J23">
-        <v>1019.716431350772</v>
+        <v>955.0118991977208</v>
       </c>
       <c r="K23">
-        <v>3144.617917537016</v>
+        <v>3143.816237096759</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.32705345456806</v>
+        <v>61.75442887491575</v>
       </c>
       <c r="G24">
-        <v>150.4437287451666</v>
+        <v>146.5234224041754</v>
       </c>
       <c r="H24">
-        <v>1706.957277190079</v>
+        <v>1706.338544480467</v>
       </c>
       <c r="I24">
-        <v>-674.6552324856868</v>
+        <v>-632.4032010688562</v>
       </c>
       <c r="J24">
-        <v>886.2059314659562</v>
+        <v>913.8983714949828</v>
       </c>
       <c r="K24">
-        <v>3292.213958627376</v>
+        <v>3055.244510961907</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.66940331438784</v>
+        <v>59.59322651120637</v>
       </c>
       <c r="G25">
-        <v>167.007996215993</v>
+        <v>167.2681898136702</v>
       </c>
       <c r="H25">
-        <v>1599.450341186748</v>
+        <v>1707.982953989647</v>
       </c>
       <c r="I25">
-        <v>-573.2109559265291</v>
+        <v>-587.9516120862617</v>
       </c>
       <c r="J25">
-        <v>917.5149173525703</v>
+        <v>911.855978943986</v>
       </c>
       <c r="K25">
-        <v>3283.897371670514</v>
+        <v>3254.503410072897</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.61805462371349</v>
+        <v>59.99442586046774</v>
       </c>
       <c r="G26">
-        <v>174.2636949608027</v>
+        <v>189.700633889598</v>
       </c>
       <c r="H26">
-        <v>1707.609994539322</v>
+        <v>1619.409060401736</v>
       </c>
       <c r="I26">
-        <v>-561.7307573247485</v>
+        <v>-529.6737180572081</v>
       </c>
       <c r="J26">
-        <v>849.352070881764</v>
+        <v>799.4848680530782</v>
       </c>
       <c r="K26">
-        <v>3192.851424656335</v>
+        <v>3182.133734532422</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.75274232233687</v>
+        <v>59.35913799255904</v>
       </c>
       <c r="G27">
-        <v>201.4651150846923</v>
+        <v>195.3358340621755</v>
       </c>
       <c r="H27">
-        <v>1664.832955501961</v>
+        <v>1725.568980364275</v>
       </c>
       <c r="I27">
-        <v>-510.8900167235232</v>
+        <v>-476.2062695951676</v>
       </c>
       <c r="J27">
-        <v>775.9882180398996</v>
+        <v>784.6428631122589</v>
       </c>
       <c r="K27">
-        <v>2898.890078022878</v>
+        <v>2949.796763162299</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.19773406385277</v>
+        <v>58.9991570009248</v>
       </c>
       <c r="G28">
-        <v>218.2311195216968</v>
+        <v>220.2652122317214</v>
       </c>
       <c r="H28">
-        <v>1708.874069463478</v>
+        <v>1712.517680876114</v>
       </c>
       <c r="I28">
-        <v>-443.9129329433953</v>
+        <v>-419.3729597155842</v>
       </c>
       <c r="J28">
-        <v>726.9298362041042</v>
+        <v>706.3733127199707</v>
       </c>
       <c r="K28">
-        <v>2926.749087838223</v>
+        <v>2862.29077182546</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.48560935002164</v>
+        <v>53.86626140384825</v>
       </c>
       <c r="G29">
-        <v>226.9375074048359</v>
+        <v>240.5309145277293</v>
       </c>
       <c r="H29">
-        <v>1733.600026693111</v>
+        <v>1714.864819130584</v>
       </c>
       <c r="I29">
-        <v>-388.432007923673</v>
+        <v>-390.2939368628565</v>
       </c>
       <c r="J29">
-        <v>653.9919552991612</v>
+        <v>693.8274511323272</v>
       </c>
       <c r="K29">
-        <v>2869.396267007613</v>
+        <v>2832.131693834546</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.49828570615308</v>
+        <v>52.30876116337068</v>
       </c>
       <c r="G30">
-        <v>257.5237529890039</v>
+        <v>247.2125405859391</v>
       </c>
       <c r="H30">
-        <v>1727.146382847553</v>
+        <v>1738.369350512178</v>
       </c>
       <c r="I30">
-        <v>-335.1051139953561</v>
+        <v>-332.9901258382179</v>
       </c>
       <c r="J30">
-        <v>639.1656210287821</v>
+        <v>618.9094548475425</v>
       </c>
       <c r="K30">
-        <v>2697.81622061234</v>
+        <v>2879.442048137271</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.94104175129235</v>
+        <v>54.05803615008541</v>
       </c>
       <c r="G31">
-        <v>276.3370779286711</v>
+        <v>273.1991796558694</v>
       </c>
       <c r="H31">
-        <v>1734.513671322328</v>
+        <v>1718.609305001658</v>
       </c>
       <c r="I31">
-        <v>-268.6472456661336</v>
+        <v>-266.9575279548418</v>
       </c>
       <c r="J31">
-        <v>580.4815335461072</v>
+        <v>577.2731180674222</v>
       </c>
       <c r="K31">
-        <v>2760.242662640366</v>
+        <v>2635.704652206183</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.82796205019585</v>
+        <v>49.50586376164523</v>
       </c>
       <c r="G32">
-        <v>273.7461347613345</v>
+        <v>272.2576802858164</v>
       </c>
       <c r="H32">
-        <v>1701.476517598196</v>
+        <v>1752.136131139208</v>
       </c>
       <c r="I32">
-        <v>-197.7461874220969</v>
+        <v>-216.1793452661089</v>
       </c>
       <c r="J32">
-        <v>523.2378542003812</v>
+        <v>526.1506826079949</v>
       </c>
       <c r="K32">
-        <v>2536.680738295689</v>
+        <v>2514.308574627382</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.20648543799948</v>
+        <v>51.16080609841381</v>
       </c>
       <c r="G33">
-        <v>306.2383856278855</v>
+        <v>302.5085649900654</v>
       </c>
       <c r="H33">
-        <v>1723.210299390177</v>
+        <v>1733.010319344313</v>
       </c>
       <c r="I33">
-        <v>-150.42719504922</v>
+        <v>-145.1614160979863</v>
       </c>
       <c r="J33">
-        <v>470.6730940055311</v>
+        <v>515.8717607702926</v>
       </c>
       <c r="K33">
-        <v>2430.647793202638</v>
+        <v>2391.205667042977</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.70948704967084</v>
+        <v>48.37747669622301</v>
       </c>
       <c r="G34">
-        <v>299.7895274405589</v>
+        <v>327.5288755302108</v>
       </c>
       <c r="H34">
-        <v>1781.615807967794</v>
+        <v>1739.522620086141</v>
       </c>
       <c r="I34">
-        <v>-84.12488992682513</v>
+        <v>-87.01827164849213</v>
       </c>
       <c r="J34">
-        <v>430.8781732195538</v>
+        <v>422.2675429377601</v>
       </c>
       <c r="K34">
-        <v>2183.355835843376</v>
+        <v>2269.869520051637</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.48701036297543</v>
+        <v>46.85888671980939</v>
       </c>
       <c r="G35">
-        <v>321.6350331635293</v>
+        <v>340.2263681941072</v>
       </c>
       <c r="H35">
-        <v>1894.106476403323</v>
+        <v>1865.549298010962</v>
       </c>
       <c r="I35">
-        <v>-17.9795448113222</v>
+        <v>-18.78076727017318</v>
       </c>
       <c r="J35">
-        <v>412.235548896951</v>
+        <v>403.2248716362847</v>
       </c>
       <c r="K35">
-        <v>2106.39125448357</v>
+        <v>1932.45434310302</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.61997882431975</v>
+        <v>47.4703036591002</v>
       </c>
       <c r="G36">
-        <v>337.1665018476016</v>
+        <v>357.4221368046016</v>
       </c>
       <c r="H36">
-        <v>1810.183140771238</v>
+        <v>1772.783256725519</v>
       </c>
       <c r="I36">
-        <v>47.26001413951576</v>
+        <v>47.96660953631619</v>
       </c>
       <c r="J36">
-        <v>355.4831561086361</v>
+        <v>338.3627516791273</v>
       </c>
       <c r="K36">
-        <v>1785.936342340868</v>
+        <v>1857.147646847954</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.9536182511051</v>
+        <v>45.65402015250986</v>
       </c>
       <c r="G37">
-        <v>368.7968935415012</v>
+        <v>348.4589513712407</v>
       </c>
       <c r="H37">
-        <v>1765.828261955336</v>
+        <v>1845.889929731572</v>
       </c>
       <c r="I37">
-        <v>111.6833439569935</v>
+        <v>113.0370212059524</v>
       </c>
       <c r="J37">
-        <v>304.6005222253725</v>
+        <v>292.027183262393</v>
       </c>
       <c r="K37">
-        <v>1602.447578760737</v>
+        <v>1620.736395267702</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.19059790988844</v>
+        <v>44.33885812818389</v>
       </c>
       <c r="G38">
-        <v>373.0543512505525</v>
+        <v>365.5634521332473</v>
       </c>
       <c r="H38">
-        <v>1854.263856798011</v>
+        <v>1844.806155791262</v>
       </c>
       <c r="I38">
-        <v>187.3223342295452</v>
+        <v>178.8315665414161</v>
       </c>
       <c r="J38">
-        <v>247.5944010230892</v>
+        <v>237.7439130084321</v>
       </c>
       <c r="K38">
-        <v>1443.74423509963</v>
+        <v>1362.738130099929</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.88470373444292</v>
+        <v>45.20928962719339</v>
       </c>
       <c r="G39">
-        <v>412.3530145449371</v>
+        <v>395.5034951782887</v>
       </c>
       <c r="H39">
-        <v>1769.235741599948</v>
+        <v>1857.645782458526</v>
       </c>
       <c r="I39">
-        <v>260.724660776497</v>
+        <v>248.7919693319837</v>
       </c>
       <c r="J39">
-        <v>204.6422027392609</v>
+        <v>202.5914787953311</v>
       </c>
       <c r="K39">
-        <v>1188.450780564258</v>
+        <v>1161.155792532969</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.24286695263843</v>
+        <v>44.58720534268762</v>
       </c>
       <c r="G40">
-        <v>400.2583279502372</v>
+        <v>426.1510104043879</v>
       </c>
       <c r="H40">
-        <v>1817.544953627546</v>
+        <v>1934.257406531976</v>
       </c>
       <c r="I40">
-        <v>326.9345328085425</v>
+        <v>322.1204698118614</v>
       </c>
       <c r="J40">
-        <v>147.0370743231581</v>
+        <v>145.8961441727341</v>
       </c>
       <c r="K40">
-        <v>936.6714131490679</v>
+        <v>889.27788284505</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.16756145815986</v>
+        <v>43.12995171871765</v>
       </c>
       <c r="G41">
-        <v>410.7646086293171</v>
+        <v>437.790154471724</v>
       </c>
       <c r="H41">
-        <v>1819.663663556803</v>
+        <v>1862.387506981192</v>
       </c>
       <c r="I41">
-        <v>386.015210787371</v>
+        <v>398.1652560286715</v>
       </c>
       <c r="J41">
-        <v>103.0385432615672</v>
+        <v>98.28041828681069</v>
       </c>
       <c r="K41">
-        <v>628.2777192652773</v>
+        <v>612.6712722056142</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.27003993011171</v>
+        <v>42.46710498080049</v>
       </c>
       <c r="G42">
-        <v>451.4883180515536</v>
+        <v>431.4121153712952</v>
       </c>
       <c r="H42">
-        <v>1823.605387430402</v>
+        <v>1956.982505406303</v>
       </c>
       <c r="I42">
-        <v>499.7477439804955</v>
+        <v>498.0238900482358</v>
       </c>
       <c r="J42">
-        <v>56.55524250657258</v>
+        <v>54.31737038732798</v>
       </c>
       <c r="K42">
-        <v>321.3444817561963</v>
+        <v>325.3447040664317</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.40345271646328</v>
+        <v>40.65821949871918</v>
       </c>
       <c r="G43">
-        <v>454.4958865838075</v>
+        <v>460.5106748566052</v>
       </c>
       <c r="H43">
-        <v>1818.279302206138</v>
+        <v>1903.472122822194</v>
       </c>
       <c r="I43">
-        <v>584.380429332584</v>
+        <v>573.7622008974104</v>
       </c>
       <c r="J43">
-        <v>5.410271339704681</v>
+        <v>5.390713649039284</v>
       </c>
       <c r="K43">
-        <v>34.07725971801683</v>
+        <v>33.70689956049505</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.19258983133779</v>
+        <v>43.13091712314932</v>
       </c>
       <c r="G44">
-        <v>493.5737780150732</v>
+        <v>465.2056040178115</v>
       </c>
       <c r="H44">
-        <v>1813.934245995817</v>
+        <v>1854.66253830219</v>
       </c>
       <c r="I44">
-        <v>610.8501154685168</v>
+        <v>630.4114864153574</v>
       </c>
       <c r="J44">
-        <v>-45.50236225838903</v>
+        <v>-42.79336547130708</v>
       </c>
       <c r="K44">
-        <v>-288.6200438588008</v>
+        <v>-269.9660390218429</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.1030481982847</v>
+        <v>39.86281448085701</v>
       </c>
       <c r="G45">
-        <v>507.837681073516</v>
+        <v>487.9216787264659</v>
       </c>
       <c r="H45">
-        <v>1979.258590645199</v>
+        <v>1984.095560117104</v>
       </c>
       <c r="I45">
-        <v>742.618181946004</v>
+        <v>712.3092900796553</v>
       </c>
       <c r="J45">
-        <v>-88.56925596434962</v>
+        <v>-93.01602707157791</v>
       </c>
       <c r="K45">
-        <v>-636.7670165563948</v>
+        <v>-608.7497661070913</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.6009731870251</v>
+        <v>40.87449430925533</v>
       </c>
       <c r="G46">
-        <v>522.2109802557894</v>
+        <v>531.6693618077315</v>
       </c>
       <c r="H46">
-        <v>1979.865995382761</v>
+        <v>1962.022741404172</v>
       </c>
       <c r="I46">
-        <v>769.3718195309425</v>
+        <v>796.5267702714669</v>
       </c>
       <c r="J46">
-        <v>-134.6820734416379</v>
+        <v>-141.923641495629</v>
       </c>
       <c r="K46">
-        <v>-946.3440865708783</v>
+        <v>-930.6524479339314</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.62297671228745</v>
+        <v>41.17650138093433</v>
       </c>
       <c r="G47">
-        <v>509.2936088570261</v>
+        <v>501.9725707823953</v>
       </c>
       <c r="H47">
-        <v>1853.046395547568</v>
+        <v>1865.611138321994</v>
       </c>
       <c r="I47">
-        <v>927.1958750467788</v>
+        <v>894.6765139685642</v>
       </c>
       <c r="J47">
-        <v>-195.8226000336618</v>
+        <v>-196.4839448465368</v>
       </c>
       <c r="K47">
-        <v>-1336.333698392262</v>
+        <v>-1297.400254193499</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.21407882015787</v>
+        <v>38.01128875618647</v>
       </c>
       <c r="G48">
-        <v>519.3173763556895</v>
+        <v>555.3124838471813</v>
       </c>
       <c r="H48">
-        <v>1974.747334637211</v>
+        <v>1942.858632954614</v>
       </c>
       <c r="I48">
-        <v>1020.248349077462</v>
+        <v>986.1028188176132</v>
       </c>
       <c r="J48">
-        <v>-240.7128077244209</v>
+        <v>-228.4122718366671</v>
       </c>
       <c r="K48">
-        <v>-1642.617885967262</v>
+        <v>-1645.75615563912</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.76761168974591</v>
+        <v>37.41634661932785</v>
       </c>
       <c r="G49">
-        <v>556.9515614914526</v>
+        <v>544.0614622226764</v>
       </c>
       <c r="H49">
-        <v>1851.58326735808</v>
+        <v>1963.350235776038</v>
       </c>
       <c r="I49">
-        <v>1111.989975486347</v>
+        <v>1041.458520394096</v>
       </c>
       <c r="J49">
-        <v>-281.351350791615</v>
+        <v>-287.3478716363342</v>
       </c>
       <c r="K49">
-        <v>-2169.457226935463</v>
+        <v>-2139.108845682547</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.02674421541309</v>
+        <v>38.72123795103175</v>
       </c>
       <c r="G50">
-        <v>581.8122351250212</v>
+        <v>575.1710212731213</v>
       </c>
       <c r="H50">
-        <v>1932.264068274496</v>
+        <v>1873.822863321948</v>
       </c>
       <c r="I50">
-        <v>1220.331602406724</v>
+        <v>1173.402394859037</v>
       </c>
       <c r="J50">
-        <v>-330.1964541298316</v>
+        <v>-347.0531617542194</v>
       </c>
       <c r="K50">
-        <v>-2409.474499713082</v>
+        <v>-2480.261106956554</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.13521647056397</v>
+        <v>36.88188767183073</v>
       </c>
       <c r="G51">
-        <v>590.9401207359391</v>
+        <v>614.1777549764879</v>
       </c>
       <c r="H51">
-        <v>2059.270835363925</v>
+        <v>1945.094472839478</v>
       </c>
       <c r="I51">
-        <v>1285.605890513385</v>
+        <v>1231.607039845209</v>
       </c>
       <c r="J51">
-        <v>-376.9446889438539</v>
+        <v>-377.2348103258547</v>
       </c>
       <c r="K51">
-        <v>-2914.187366505704</v>
+        <v>-3002.21909705701</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.72603528749311</v>
+        <v>35.65264564381866</v>
       </c>
       <c r="G52">
-        <v>580.363789264104</v>
+        <v>627.5651824334999</v>
       </c>
       <c r="H52">
-        <v>1872.383741285068</v>
+        <v>1991.303460682397</v>
       </c>
       <c r="I52">
-        <v>1344.864769784876</v>
+        <v>1371.296051345961</v>
       </c>
       <c r="J52">
-        <v>-411.6357850467138</v>
+        <v>-419.5529763043283</v>
       </c>
       <c r="K52">
-        <v>-3489.055976112586</v>
+        <v>-3369.680044336876</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.27357888845731</v>
+        <v>36.66151442893099</v>
       </c>
       <c r="G53">
-        <v>644.0659980229231</v>
+        <v>599.5858625739419</v>
       </c>
       <c r="H53">
-        <v>1909.137205051371</v>
+        <v>1905.108935487186</v>
       </c>
       <c r="I53">
-        <v>1407.601963334192</v>
+        <v>1520.61402585577</v>
       </c>
       <c r="J53">
-        <v>-475.6394644560701</v>
+        <v>-493.913800103692</v>
       </c>
       <c r="K53">
-        <v>-3856.277007530286</v>
+        <v>-3674.581478663308</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.57984629758634</v>
+        <v>37.8027408173941</v>
       </c>
       <c r="G54">
-        <v>651.300856009771</v>
+        <v>617.7816385755569</v>
       </c>
       <c r="H54">
-        <v>2016.690350596655</v>
+        <v>2075.058266834494</v>
       </c>
       <c r="I54">
-        <v>1519.360926532807</v>
+        <v>1497.375797461426</v>
       </c>
       <c r="J54">
-        <v>-535.6204890747658</v>
+        <v>-509.7925947913633</v>
       </c>
       <c r="K54">
-        <v>-4255.958035601446</v>
+        <v>-4176.585709402994</v>
       </c>
     </row>
   </sheetData>
